--- a/biology/Botanique/Ver_de_bancoule/Ver_de_bancoule.xlsx
+++ b/biology/Botanique/Ver_de_bancoule/Ver_de_bancoule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrianome fairmairei
 Le ver de Bancoule (Agrianome fairmairei) est la larve d'une espèce d'insectes coléoptères de la famille des Cerambycidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves peuvent atteindre 8 cm de long sur 2 cm de diamètre. Elles se nourrissent du bois tendre et humide du bancoulier (Aleurites moluccana), en cours de décomposition. Elles pratiquent de longues galeries sinueuses, rebouchées après le passage de la larve, avec les débris de bois déchiquetés par des mandibules puissantes.
 La nymphe se trouve en bout de galerie, dans une loge de 10 cm de long par 2,5 de large.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ver de bancoule est comestible (à l'exception de la tête) et apprécié cru, grillé ou cuit dans certaines régions d'Asie et en Nouvelle-Calédonie où on le déguste après l'avoir fait dégorger quelques jours dans de la noix de coco râpée.
 </t>
